--- a/statistics/HistoricalDistanceData/historical_distance/Q64362231-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q64362231-en.xlsx
@@ -31,46 +31,46 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Alleged Darwin shooter Benjamin Hoffmann to argue defence of mental impairment, court hears</t>
+  </si>
+  <si>
     <t>Chilling CCTV captures Darwin rampage</t>
   </si>
   <si>
-    <t>Alleged Darwin shooter Benjamin Hoffmann to argue defence of mental impairment, court hears</t>
-  </si>
-  <si>
     <t>Four people shot dead in Darwin as police reveal suspect was on parole</t>
   </si>
   <si>
     <t>Alleged shooter Ben Hoffman’s downward spiral</t>
   </si>
   <si>
+    <t>2020-04-23T00:53:31UTC</t>
+  </si>
+  <si>
     <t>2019-06-06T20:57:00UTC</t>
   </si>
   <si>
-    <t>2020-04-23T00:53:31UTC</t>
-  </si>
-  <si>
     <t>2019-06-04T21:28:42UTC</t>
   </si>
   <si>
     <t>2019-06-05T02:50:00UTC</t>
   </si>
   <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_2_to_30</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
-  </si>
-  <si>
     <t>day_0</t>
   </si>
   <si>
     <t>day_1</t>
   </si>
   <si>
+    <t>https://www.abc.net.au/news/2020-04-23/accused-darwin-shooter-benjamin-hoffmann-in-court/12175908</t>
+  </si>
+  <si>
     <t>https://www.news.com.au/national/chilling-cctv-images-capture-darwin-rampage/news-story/7e269bfa7259e513b3d8b3d17b58b36e</t>
-  </si>
-  <si>
-    <t>https://www.abc.net.au/news/2020-04-23/accused-darwin-shooter-benjamin-hoffmann-in-court/12175908</t>
   </si>
   <si>
     <t>https://www.theguardian.com/australia-news/2019/jun/04/police-say-they-have-reports-of-up-to-four-people-dead-in-darwin-shooting</t>
@@ -478,7 +478,7 @@
         <v>9</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>324</v>
       </c>
       <c r="D2" t="s">
         <v>13</v>
@@ -495,7 +495,7 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>324</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
         <v>14</v>
